--- a/tests/test_data/spreadsheets/basic-spreadsheet.xlsx
+++ b/tests/test_data/spreadsheets/basic-spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harmsm/work/programming/git-clones/dataprob/tests/test_data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3F644DB-1A6B-BC42-9FC8-07685928563F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9A6781-317E-034F-BEDB-9EEE7EC71573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="2820" windowWidth="26440" windowHeight="15440" xr2:uid="{E5863749-9197-974A-ABCE-65FFA498F626}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>param</t>
-  </si>
-  <si>
     <t>guess</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>K3</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -457,30 +457,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>10000000</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>9.9999999999999995E-7</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
